--- a/dataset/data_unit.xlsx
+++ b/dataset/data_unit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Staklim Lobar\OneDrive\Documents\LOMBA INOVDA MATARAM\myapp_v02\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dara\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2136DBD8-F14C-4AD4-9282-52327F807EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EEC262-2F22-4D15-B135-C123893CEA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA335582-7B0A-40C9-94DB-9D832746ECB2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>no</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>+6281805799483</t>
   </si>
 </sst>
 </file>
@@ -824,13 +827,13 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F64"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" customWidth="1"/>
@@ -892,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G3" s="1"/>
     </row>
